--- a/data/trans_orig/P36B09_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B09_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A3D159-BF06-4434-97B4-0D2867510995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7964557-67B3-46C2-8C5A-05B935D56242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7530CAA4-EAE8-40A4-83DF-4F7B6418D816}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2292961-E740-46B5-A5C4-8AB766A8717C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="262">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,58 +104,58 @@
     <t>90,49%</t>
   </si>
   <si>
-    <t>86,2%</t>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
     <t>Tres o más por semana</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,652 +167,658 @@
     <t>12,99%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>59,67%</t>
   </si>
   <si>
-    <t>54,0%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,6%</t>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB30AC44-0110-4AE8-A2BD-5186BA20D108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9ACA78-7E34-41BF-A2FE-BBE015CFBF74}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1799,7 +1805,7 @@
         <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>178852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>284</v>
@@ -1829,13 +1835,13 @@
         <v>206296</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>474</v>
@@ -1844,13 +1850,13 @@
         <v>385148</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,13 +1871,13 @@
         <v>130900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>225</v>
@@ -1880,13 +1886,13 @@
         <v>148665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>381</v>
@@ -1895,13 +1901,13 @@
         <v>279565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,7 +1963,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1969,13 +1975,13 @@
         <v>34595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -1984,13 +1990,13 @@
         <v>35953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -1999,13 +2005,13 @@
         <v>70548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2026,13 @@
         <v>163911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>288</v>
@@ -2035,13 +2041,13 @@
         <v>229705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>439</v>
@@ -2050,13 +2056,13 @@
         <v>393616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2077,13 @@
         <v>122315</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>255</v>
@@ -2086,13 +2092,13 @@
         <v>162898</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>365</v>
@@ -2101,13 +2107,13 @@
         <v>285213</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2169,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2175,13 +2181,13 @@
         <v>9456</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2190,13 +2196,13 @@
         <v>2903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2593,7 +2599,7 @@
         <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -2602,13 +2608,13 @@
         <v>58425</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>119</v>
@@ -2617,13 +2623,13 @@
         <v>97130</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2644,13 @@
         <v>359272</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>545</v>
@@ -2653,13 +2659,13 @@
         <v>395562</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>876</v>
@@ -2668,13 +2674,13 @@
         <v>754834</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2695,13 @@
         <v>227660</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>336</v>
@@ -2704,13 +2710,13 @@
         <v>349515</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>561</v>
@@ -2719,13 +2725,13 @@
         <v>577175</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2787,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2793,13 +2799,13 @@
         <v>75500</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -2808,13 +2814,13 @@
         <v>83772</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>163</v>
@@ -2823,13 +2829,13 @@
         <v>159272</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2850,13 @@
         <v>595556</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H33" s="7">
         <v>769</v>
@@ -2859,13 +2865,13 @@
         <v>619499</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M33" s="7">
         <v>1329</v>
@@ -2874,13 +2880,13 @@
         <v>1215055</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2901,13 @@
         <v>187656</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>200</v>
@@ -2910,13 +2916,13 @@
         <v>165163</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>331</v>
@@ -2925,13 +2931,13 @@
         <v>352819</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3005,13 @@
         <v>250782</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H36" s="7">
         <v>359</v>
@@ -3014,13 +3020,13 @@
         <v>272105</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M36" s="7">
         <v>589</v>
@@ -3029,13 +3035,13 @@
         <v>522887</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3056,13 @@
         <v>2169436</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H37" s="7">
         <v>3454</v>
@@ -3065,13 +3071,13 @@
         <v>2382121</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M37" s="7">
         <v>5662</v>
@@ -3080,13 +3086,13 @@
         <v>4551557</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,10 +3110,10 @@
         <v>66</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>1540</v>
@@ -3116,13 +3122,13 @@
         <v>1146190</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>2471</v>
@@ -3131,13 +3137,13 @@
         <v>2105450</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3199,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
